--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/14.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/14.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2262269434104738</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.600429473996832</v>
+        <v>-1.602603981412909</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1512216401904418</v>
+        <v>0.1493926299714904</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2451447068972547</v>
+        <v>-0.2445560237458883</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2306916134803491</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.532856833119393</v>
+        <v>-1.536577814322148</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0998204717652466</v>
+        <v>0.09905549847229446</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2485430141801429</v>
+        <v>-0.2478803521300753</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2392921657554961</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.488154690074454</v>
+        <v>-1.494010828215253</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09558793434806905</v>
+        <v>0.09505276784682681</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2583365611528758</v>
+        <v>-0.2578533372826365</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2410548418556642</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.557705872987367</v>
+        <v>-1.56322753206489</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12228487266445</v>
+        <v>0.1228168911274496</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2354188427467378</v>
+        <v>-0.2354550451865277</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2362366276720213</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.592129671170213</v>
+        <v>-1.596346468396178</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1072388238839367</v>
+        <v>0.1089340424775776</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2611178529402141</v>
+        <v>-0.2611729436094596</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2312745468504882</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.478912049794176</v>
+        <v>-1.482618864824839</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1201536507742089</v>
+        <v>0.1231930816974405</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2529235093947227</v>
+        <v>-0.2530935034598232</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2317531230549894</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.264366947484407</v>
+        <v>-1.265977169045498</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1568015379754528</v>
+        <v>0.1612024954386095</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2588308031569642</v>
+        <v>-0.2590983864075854</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.236648752146255</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.006751959958488</v>
+        <v>-1.006422989962136</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1783781920902426</v>
+        <v>0.1840556790607742</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2559912726621378</v>
+        <v>-0.2562871882569423</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.242280228664947</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5940921539366468</v>
+        <v>-0.5924473039548876</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1673207077631053</v>
+        <v>0.1735097509480596</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1643880818598017</v>
+        <v>-0.1653608256767655</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2436210297479203</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2207946310907331</v>
+        <v>-0.2176560369628595</v>
       </c>
       <c r="F11" t="n">
-        <v>0.137277404794839</v>
+        <v>0.1431689583658675</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1285854429266962</v>
+        <v>-0.1291127393323319</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2336853330883937</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2404984307314956</v>
+        <v>0.2443390373874692</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1021641862368633</v>
+        <v>0.1066753250385111</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03857515947511638</v>
+        <v>-0.03891199956707473</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2038596741909985</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7649128073561244</v>
+        <v>0.7711301828852621</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.006636737484804124</v>
+        <v>-0.004338669567705121</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05517814144691648</v>
+        <v>0.05511990273942836</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.148822421171215</v>
       </c>
       <c r="E14" t="n">
-        <v>1.309753230117872</v>
+        <v>1.317133805777651</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2309690906908207</v>
+        <v>-0.2277533696260035</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1589988686687885</v>
+        <v>0.1595072768449687</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.06895444607436785</v>
       </c>
       <c r="E15" t="n">
-        <v>1.871256219297709</v>
+        <v>1.87882095519468</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4427706776721626</v>
+        <v>-0.4393991287143365</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2925874455126992</v>
+        <v>0.2931446482816397</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.02997950453216678</v>
       </c>
       <c r="E16" t="n">
-        <v>2.343268351335996</v>
+        <v>2.351741296265957</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6673564479567087</v>
+        <v>-0.6648443134391128</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4367675970238422</v>
+        <v>0.4373814644811495</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1370130169344352</v>
       </c>
       <c r="E17" t="n">
-        <v>2.798594306669373</v>
+        <v>2.807818058720196</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8806029844914045</v>
+        <v>-0.8796994975157779</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5556217808732572</v>
+        <v>0.5570572863118833</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2427010415296538</v>
       </c>
       <c r="E18" t="n">
-        <v>3.222118779675992</v>
+        <v>3.230366639871608</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.20857111767254</v>
+        <v>-1.207903733565109</v>
       </c>
       <c r="G18" t="n">
-        <v>0.677066800196333</v>
+        <v>0.6786770217574236</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.344556868489322</v>
       </c>
       <c r="E19" t="n">
-        <v>3.59655904040397</v>
+        <v>3.604424413953109</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.507313650818926</v>
+        <v>-1.508236026024008</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8380338656361479</v>
+        <v>0.8396078847574485</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4432905004176619</v>
       </c>
       <c r="E20" t="n">
-        <v>3.721647913992857</v>
+        <v>3.731287207091702</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.842936238986947</v>
+        <v>-1.844045922467464</v>
       </c>
       <c r="G20" t="n">
-        <v>1.014072164162417</v>
+        <v>1.01580673323409</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5386579150072551</v>
       </c>
       <c r="E21" t="n">
-        <v>3.971893343992847</v>
+        <v>3.981052561259696</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.079210675266272</v>
+        <v>-2.081396987825758</v>
       </c>
       <c r="G21" t="n">
-        <v>1.181761865269307</v>
+        <v>1.183491712283616</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6286678915548553</v>
       </c>
       <c r="E22" t="n">
-        <v>4.176570920431182</v>
+        <v>4.186518721277802</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.375037337990447</v>
+        <v>-2.375818051474613</v>
       </c>
       <c r="G22" t="n">
-        <v>1.321904657734314</v>
+        <v>1.323968196802339</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7116453933452072</v>
       </c>
       <c r="E23" t="n">
-        <v>4.401761114058307</v>
+        <v>4.410948663669339</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.507132170688244</v>
+        <v>-2.508247363235685</v>
       </c>
       <c r="G23" t="n">
-        <v>1.492813227944264</v>
+        <v>1.494736679310493</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7876790555532471</v>
       </c>
       <c r="E24" t="n">
-        <v>4.52967692598905</v>
+        <v>4.538423750246118</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.622144960872125</v>
+        <v>-2.622820215075162</v>
       </c>
       <c r="G24" t="n">
-        <v>1.596610344879316</v>
+        <v>1.598733696673951</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8570765901350118</v>
       </c>
       <c r="E25" t="n">
-        <v>4.670864867150601</v>
+        <v>4.678394974626904</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.818277187500918</v>
+        <v>-2.817606655355244</v>
       </c>
       <c r="G25" t="n">
-        <v>1.659800916523054</v>
+        <v>1.661911676164718</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9188579903804774</v>
       </c>
       <c r="E26" t="n">
-        <v>4.784172207616552</v>
+        <v>4.790718553142042</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.908182798680931</v>
+        <v>-2.907486295219756</v>
       </c>
       <c r="G26" t="n">
-        <v>1.70297468700121</v>
+        <v>1.704646295308031</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.970508882434572</v>
       </c>
       <c r="E27" t="n">
-        <v>4.894348824050236</v>
+        <v>4.899025234859621</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.98091035218063</v>
+        <v>-2.979300130619539</v>
       </c>
       <c r="G27" t="n">
-        <v>1.753318114576891</v>
+        <v>1.75465917886824</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.009675433394398</v>
       </c>
       <c r="E28" t="n">
-        <v>4.893560240470465</v>
+        <v>4.898173690514997</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069885718059954</v>
+        <v>-3.067778893466093</v>
       </c>
       <c r="G28" t="n">
-        <v>1.794170206851129</v>
+        <v>1.795369609421561</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.034394737908776</v>
       </c>
       <c r="E29" t="n">
-        <v>4.902155958891887</v>
+        <v>4.906256278702876</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.083441170732596</v>
+        <v>-3.081151759920664</v>
       </c>
       <c r="G29" t="n">
-        <v>1.725388719288532</v>
+        <v>1.727066623671838</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.04286044481553</v>
       </c>
       <c r="E30" t="n">
-        <v>4.84368429657381</v>
+        <v>4.848012849157387</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.073181714099958</v>
+        <v>-3.070695550897864</v>
       </c>
       <c r="G30" t="n">
-        <v>1.689323219162169</v>
+        <v>1.690648543262304</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.034101944084938</v>
       </c>
       <c r="E31" t="n">
-        <v>4.718332561791666</v>
+        <v>4.722122799835757</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.061545777745743</v>
+        <v>-3.058592917874182</v>
       </c>
       <c r="G31" t="n">
-        <v>1.630561937325772</v>
+        <v>1.631857355062603</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.008435356893956</v>
       </c>
       <c r="E32" t="n">
-        <v>4.637654637710278</v>
+        <v>4.640906561214885</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.022542370929472</v>
+        <v>-3.019685526224312</v>
       </c>
       <c r="G32" t="n">
-        <v>1.593119170468271</v>
+        <v>1.593915624143649</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.96793887338179</v>
       </c>
       <c r="E33" t="n">
-        <v>4.559625787810038</v>
+        <v>4.560976296216115</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.953465754781631</v>
+        <v>-2.950409009648065</v>
       </c>
       <c r="G33" t="n">
-        <v>1.563864451079777</v>
+        <v>1.563795194238439</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9151405956588052</v>
       </c>
       <c r="E34" t="n">
-        <v>4.356833886279022</v>
+        <v>4.359218525247792</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.88128045086922</v>
+        <v>-2.877756222056628</v>
       </c>
       <c r="G34" t="n">
-        <v>1.513580836230705</v>
+        <v>1.512930766333608</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8526190566030828</v>
       </c>
       <c r="E35" t="n">
-        <v>4.132153674847197</v>
+        <v>4.133968518894058</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.849541929307314</v>
+        <v>-2.845541559710528</v>
       </c>
       <c r="G35" t="n">
-        <v>1.392617466758747</v>
+        <v>1.392102762506082</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7829921016798413</v>
       </c>
       <c r="E36" t="n">
-        <v>3.980920343653506</v>
+        <v>3.982031601153145</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.824266330257467</v>
+        <v>-2.819996803390939</v>
       </c>
       <c r="G36" t="n">
-        <v>1.366173945520895</v>
+        <v>1.365119352709624</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.709473404112734</v>
       </c>
       <c r="E37" t="n">
-        <v>3.785005331663452</v>
+        <v>3.785472815342479</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.76054374015073</v>
+        <v>-2.756171115031757</v>
       </c>
       <c r="G37" t="n">
-        <v>1.279143280265938</v>
+        <v>1.27832321630374</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.634370188806551</v>
       </c>
       <c r="E38" t="n">
-        <v>3.715169251289583</v>
+        <v>3.714128824650404</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.729294738535548</v>
+        <v>-2.724322412131359</v>
       </c>
       <c r="G38" t="n">
-        <v>1.236019878399663</v>
+        <v>1.234497801909365</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5588124024637248</v>
       </c>
       <c r="E39" t="n">
-        <v>3.504981033907575</v>
+        <v>3.503303129524268</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.746574320449187</v>
+        <v>-2.741321031631845</v>
       </c>
       <c r="G39" t="n">
-        <v>1.160723525694002</v>
+        <v>1.159344684943743</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4828319851379769</v>
       </c>
       <c r="E40" t="n">
-        <v>3.259009065821916</v>
+        <v>3.257409862394675</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.711675955501268</v>
+        <v>-2.706145639318578</v>
       </c>
       <c r="G40" t="n">
-        <v>1.096591690615727</v>
+        <v>1.095204979769861</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4066358275559889</v>
       </c>
       <c r="E41" t="n">
-        <v>3.087030162609482</v>
+        <v>3.084928847082546</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.650769285602538</v>
+        <v>-2.645728489366573</v>
       </c>
       <c r="G41" t="n">
-        <v>1.064650120587172</v>
+        <v>1.063039899026081</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3309129810425416</v>
       </c>
       <c r="E42" t="n">
-        <v>2.972915350334303</v>
+        <v>2.969460378363048</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.619970453456048</v>
+        <v>-2.614553466650091</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9805408348213482</v>
+        <v>0.9791194955548137</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2556356490718033</v>
       </c>
       <c r="E43" t="n">
-        <v>2.839531395976162</v>
+        <v>2.835092662054094</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.603130809886812</v>
+        <v>-2.597260505573921</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9284376538680529</v>
+        <v>0.9270761273281278</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1802681123206656</v>
       </c>
       <c r="E44" t="n">
-        <v>2.710556269176783</v>
+        <v>2.705492649663559</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.531435025921127</v>
+        <v>-2.525903135719315</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8644773868739994</v>
+        <v>0.8626247663682285</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1036890251363171</v>
       </c>
       <c r="E45" t="n">
-        <v>2.514062018150091</v>
+        <v>2.508795350170219</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.466023513297234</v>
+        <v>-2.460707263715041</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8344073255806711</v>
+        <v>0.8324445237364091</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.02546479418219883</v>
       </c>
       <c r="E46" t="n">
-        <v>2.388079101700305</v>
+        <v>2.382263101047099</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.426636832824927</v>
+        <v>-2.420412374209743</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7711317569043834</v>
+        <v>0.7691563629071511</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.05365843107749177</v>
       </c>
       <c r="E47" t="n">
-        <v>2.224922575662761</v>
+        <v>2.219278143093776</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.291513587337748</v>
+        <v>-2.286332703399987</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7148401110693069</v>
+        <v>0.7127797200395244</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1311231880806283</v>
       </c>
       <c r="E48" t="n">
-        <v>2.136947498935023</v>
+        <v>2.130413745562504</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.2507457050865</v>
+        <v>-2.244572402092758</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6661336633797784</v>
+        <v>0.6639678130688687</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2043179616873859</v>
       </c>
       <c r="E49" t="n">
-        <v>1.98365535073067</v>
+        <v>1.976842995973681</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.198851081666776</v>
+        <v>-2.19259829070741</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5918210726249303</v>
+        <v>0.5893498626044883</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2715927097565045</v>
       </c>
       <c r="E50" t="n">
-        <v>1.890202687460806</v>
+        <v>1.883590233132221</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.151421163484623</v>
+        <v>-2.145158141400967</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5351343479904074</v>
+        <v>0.5328126697864889</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.3317247570298105</v>
       </c>
       <c r="E51" t="n">
-        <v>1.766184146874403</v>
+        <v>1.759795203261044</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.101381521599353</v>
+        <v>-2.09496424564181</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4902370265744266</v>
+        <v>0.4877406322480437</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3842882543373952</v>
       </c>
       <c r="E52" t="n">
-        <v>1.654282405483773</v>
+        <v>1.648464830811446</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.983392261257092</v>
+        <v>-1.978116149162493</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4545902155343299</v>
+        <v>0.4521426158007074</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.4294501064069559</v>
       </c>
       <c r="E53" t="n">
-        <v>1.61103937816428</v>
+        <v>1.604197117043985</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.923795175267284</v>
+        <v>-1.9185867459949</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3833737203910803</v>
+        <v>0.3814612871587</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.4683833083439576</v>
       </c>
       <c r="E54" t="n">
-        <v>1.567634226875292</v>
+        <v>1.559738946962848</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.913348410359212</v>
+        <v>-1.907834621377295</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3491088981394856</v>
+        <v>0.347079987492129</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.5026548072241346</v>
       </c>
       <c r="E55" t="n">
-        <v>1.512488466960522</v>
+        <v>1.504158757770599</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.848416186557755</v>
+        <v>-1.84315738867349</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3222277995859125</v>
+        <v>0.3199029733437513</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.5336161189796289</v>
       </c>
       <c r="E56" t="n">
-        <v>1.454821128413429</v>
+        <v>1.44546830679466</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.786694174754191</v>
+        <v>-1.781917813730604</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2148859915896908</v>
+        <v>0.2136346463882567</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.5623782725160927</v>
       </c>
       <c r="E57" t="n">
-        <v>1.464139321611529</v>
+        <v>1.454547249086322</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.784247362030129</v>
+        <v>-1.779689002654843</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2155754119648205</v>
+        <v>0.2141446285835581</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5900499257765343</v>
       </c>
       <c r="E58" t="n">
-        <v>1.449041330200013</v>
+        <v>1.438772429452647</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.769474405567162</v>
+        <v>-1.764905028058026</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2110390888572319</v>
+        <v>0.2095359005963897</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.6171558535147751</v>
       </c>
       <c r="E59" t="n">
-        <v>1.437303869612474</v>
+        <v>1.426299901935461</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.732952439895622</v>
+        <v>-1.729200765320002</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1370979666150108</v>
+        <v>0.1361944796393842</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.643825653475618</v>
       </c>
       <c r="E60" t="n">
-        <v>1.470295310394936</v>
+        <v>1.457492238862276</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.765285940685381</v>
+        <v>-1.761143909367678</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1168529326768413</v>
+        <v>0.1158691707260284</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6702062943809166</v>
       </c>
       <c r="E61" t="n">
-        <v>1.467820952336251</v>
+        <v>1.454364662868252</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.783672845050855</v>
+        <v>-1.779439520624116</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1291727803392618</v>
+        <v>0.1277734773404255</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6964226582275417</v>
       </c>
       <c r="E62" t="n">
-        <v>1.478373176525451</v>
+        <v>1.46404330644513</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.827395948202345</v>
+        <v>-1.823000499806113</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04167463140527788</v>
+        <v>0.0410387276802724</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.7227207444640841</v>
       </c>
       <c r="E63" t="n">
-        <v>1.464740596915866</v>
+        <v>1.449886578468151</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.788213890215807</v>
+        <v>-1.784839193219738</v>
       </c>
       <c r="G63" t="n">
-        <v>0.007507398339203856</v>
+        <v>0.006873068633319679</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7486256571020694</v>
       </c>
       <c r="E64" t="n">
-        <v>1.46612573374261</v>
+        <v>1.450812101711476</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.815745845676038</v>
+        <v>-1.812276707532691</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02266497419700903</v>
+        <v>-0.02344253964293157</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7734676317036538</v>
       </c>
       <c r="E65" t="n">
-        <v>1.476073534589231</v>
+        <v>1.459839101372135</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.84120954001088</v>
+        <v>-1.837745910934458</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02589328741479674</v>
+        <v>-0.02662835434444416</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7957469652419791</v>
       </c>
       <c r="E66" t="n">
-        <v>1.439567309108904</v>
+        <v>1.423866468373929</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.846460467799539</v>
+        <v>-1.843492654746327</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03431428971375542</v>
+        <v>-0.03488093659742367</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8133388638748653</v>
       </c>
       <c r="E67" t="n">
-        <v>1.40504906977878</v>
+        <v>1.388767415988045</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.858255380085006</v>
+        <v>-1.855721209299712</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05333945883291683</v>
+        <v>-0.0539643444240732</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.8239948628941595</v>
       </c>
       <c r="E68" t="n">
-        <v>1.354984243587569</v>
+        <v>1.338464912909518</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.88818771470522</v>
+        <v>-1.886007698222219</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.06045087722295334</v>
+        <v>-0.06144093525025147</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.826776753587057</v>
       </c>
       <c r="E69" t="n">
-        <v>1.251292585933643</v>
+        <v>1.235624799600216</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.909615624013047</v>
+        <v>-1.907559168031068</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08282398501312131</v>
+        <v>-0.08359053232519476</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8217564461906104</v>
       </c>
       <c r="E70" t="n">
-        <v>1.267929968045792</v>
+        <v>1.251023428663901</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.914620217809223</v>
+        <v>-1.913722239900521</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05169146081291501</v>
+        <v>-0.05278697812134029</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8096366889048757</v>
       </c>
       <c r="E71" t="n">
-        <v>1.260827993770483</v>
+        <v>1.243718405921945</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.949140031158468</v>
+        <v>-1.948528524729843</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07126124054804646</v>
+        <v>-0.07280692732516374</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7916729169439458</v>
       </c>
       <c r="E72" t="n">
-        <v>1.244683279643302</v>
+        <v>1.226923621897666</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.978443545139723</v>
+        <v>-1.978274338084183</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1062815919778655</v>
+        <v>-0.1074746984718114</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7690314221059998</v>
       </c>
       <c r="E73" t="n">
-        <v>1.249690234468159</v>
+        <v>1.231304117112246</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.978168091793495</v>
+        <v>-1.978220034424498</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09360916403227362</v>
+        <v>-0.09497856066780523</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7430090632731839</v>
       </c>
       <c r="E74" t="n">
-        <v>1.244700593853636</v>
+        <v>1.225105629812564</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.986163321920142</v>
+        <v>-1.986655202895549</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07454149639683709</v>
+        <v>-0.07628236154499565</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7138266808538899</v>
       </c>
       <c r="E75" t="n">
-        <v>1.189276232554396</v>
+        <v>1.170024404681768</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.018879309356377</v>
+        <v>-2.019426281001029</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04653497417153396</v>
+        <v>-0.04861110539252957</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.681161469240955</v>
       </c>
       <c r="E76" t="n">
-        <v>1.225189052825993</v>
+        <v>1.205005405633554</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.022243775228157</v>
+        <v>-2.02327554476217</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02658428180904774</v>
+        <v>-0.02908539819279453</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6450669072229329</v>
       </c>
       <c r="E77" t="n">
-        <v>1.160566123781872</v>
+        <v>1.140132207549146</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.019636412553723</v>
+        <v>-2.020963310672979</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02823542786729216</v>
+        <v>-0.03042803650326402</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6062307456411763</v>
       </c>
       <c r="E78" t="n">
-        <v>1.180655329827033</v>
+        <v>1.160089195988118</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.030244514421728</v>
+        <v>-2.031713074261902</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02292311333290234</v>
+        <v>-0.02540061942982962</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.565195111546237</v>
       </c>
       <c r="E79" t="n">
-        <v>1.16714709772803</v>
+        <v>1.146547909487568</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.006964771617691</v>
+        <v>-2.008733182100473</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04459420859497021</v>
+        <v>-0.04667506187332972</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5220290979940212</v>
       </c>
       <c r="E80" t="n">
-        <v>1.146491244799201</v>
+        <v>1.126968685637709</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.969138731104154</v>
+        <v>-1.970442805946152</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02817876317892534</v>
+        <v>-0.03049414530635865</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4761716920912582</v>
       </c>
       <c r="E81" t="n">
-        <v>1.171337136628932</v>
+        <v>1.152688158079762</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.922443092842087</v>
+        <v>-1.923975400456673</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.008243811007652127</v>
+        <v>-0.0107055769133664</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4264363066781952</v>
       </c>
       <c r="E82" t="n">
-        <v>1.230405352193983</v>
+        <v>1.211542307044316</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.950648728486235</v>
+        <v>-1.951221671446388</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01955179265539672</v>
+        <v>0.01680040723136312</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3726002900048753</v>
       </c>
       <c r="E83" t="n">
-        <v>1.317346298359027</v>
+        <v>1.299235634349341</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.84617163529078</v>
+        <v>-1.84661865672123</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01203270331294333</v>
+        <v>0.00980546625630286</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3151144530711801</v>
       </c>
       <c r="E84" t="n">
-        <v>1.311753808421045</v>
+        <v>1.295531967356921</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.78548218003079</v>
+        <v>-1.785178394340379</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02253928094762542</v>
+        <v>0.02047574187960022</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2555770624609963</v>
       </c>
       <c r="E85" t="n">
-        <v>1.420565750276562</v>
+        <v>1.405710157809726</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.757651947947072</v>
+        <v>-1.756154268753155</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01641477254664445</v>
+        <v>0.01459205840417825</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.196289768371271</v>
       </c>
       <c r="E86" t="n">
-        <v>1.665325723638819</v>
+        <v>1.651131219202929</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.653466835298619</v>
+        <v>-1.651230154127251</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03236273428366301</v>
+        <v>0.03070371812981209</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1398861066095514</v>
       </c>
       <c r="E87" t="n">
-        <v>1.599506540062509</v>
+        <v>1.588946445777703</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.533763468133262</v>
+        <v>-1.53078384993664</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05321219156441193</v>
+        <v>0.05166020871080945</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.08936581741306839</v>
       </c>
       <c r="E88" t="n">
-        <v>1.746603349005423</v>
+        <v>1.737058497053855</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.334087337452861</v>
+        <v>-1.331254103034519</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08988368905247535</v>
+        <v>0.0883978150019675</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.04801141042887214</v>
       </c>
       <c r="E89" t="n">
-        <v>1.913631962081366</v>
+        <v>1.905432896478511</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.159239784391856</v>
+        <v>-1.156572608990811</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1135805469236572</v>
+        <v>0.1121576336380014</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.01901927055312273</v>
       </c>
       <c r="E90" t="n">
-        <v>1.934393274291322</v>
+        <v>1.928385243305318</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9191066402366619</v>
+        <v>-0.9166070978720364</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1423898189008237</v>
+        <v>0.1409574615004401</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.004556169018797003</v>
       </c>
       <c r="E91" t="n">
-        <v>1.972681289416962</v>
+        <v>1.967430361628303</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6673564479567087</v>
+        <v>-0.6645121954045183</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0954871971243058</v>
+        <v>0.09485286741842162</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.006243403227505006</v>
       </c>
       <c r="E92" t="n">
-        <v>1.988135009149892</v>
+        <v>1.98331693661959</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4621940736290131</v>
+        <v>-0.4591137182086276</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1067335637459992</v>
+        <v>0.105926091936772</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.0237303152439224</v>
       </c>
       <c r="E93" t="n">
-        <v>1.961551400210245</v>
+        <v>1.956867119305254</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2415276109565058</v>
+        <v>-0.238958811750543</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09197713448380526</v>
+        <v>0.09119327296139752</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.05432077283147521</v>
       </c>
       <c r="E94" t="n">
-        <v>1.848994866865154</v>
+        <v>1.844702516721367</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05850696360814699</v>
+        <v>-0.05590511000063695</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06669681337659492</v>
+        <v>0.06600424496322262</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.09159787423057496</v>
       </c>
       <c r="E95" t="n">
-        <v>1.797555921981047</v>
+        <v>1.793987620633058</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07266706790368843</v>
+        <v>0.07567029638713015</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05422428585940827</v>
+        <v>0.05331765084553907</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1277761302858513</v>
       </c>
       <c r="E96" t="n">
-        <v>1.669556687036875</v>
+        <v>1.666303189513147</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1459722864209041</v>
+        <v>0.148803946820124</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005268914868393827</v>
+        <v>-0.005833987732940774</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1560296716706726</v>
       </c>
       <c r="E97" t="n">
-        <v>1.503810899544791</v>
+        <v>1.502063738320148</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1501733434556556</v>
+        <v>0.153625167388668</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02045347733158156</v>
+        <v>-0.02114761976407516</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.17602464196603</v>
       </c>
       <c r="E98" t="n">
-        <v>1.390264308172402</v>
+        <v>1.388880745364779</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1782743068282368</v>
+        <v>0.181348366172137</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05850853762726829</v>
+        <v>-0.05956470445766105</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1913734606308056</v>
       </c>
       <c r="E99" t="n">
-        <v>1.250628349864455</v>
+        <v>1.25013882991773</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1813436441147731</v>
+        <v>0.1844318696307651</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09816122733107521</v>
+        <v>-0.09891203445193565</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.209926434355563</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091528071102502</v>
+        <v>1.0916461225366</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2373110420108617</v>
+        <v>0.2392628257212745</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1453172661861225</v>
+        <v>-0.1456824386222643</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2315917612863088</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9098044155100953</v>
+        <v>0.9115090782184639</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2193876862766107</v>
+        <v>0.2215834429508252</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1709784999206876</v>
+        <v>-0.1715183884792938</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2611163794657347</v>
       </c>
       <c r="E102" t="n">
-        <v>0.849890951676906</v>
+        <v>0.8510399856354555</v>
       </c>
       <c r="F102" t="n">
-        <v>0.257628480828611</v>
+        <v>0.2591316690894531</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2089894876809779</v>
+        <v>-0.2093940105951522</v>
       </c>
     </row>
   </sheetData>
